--- a/spliced/struggle/2023-03-25_18-16-13/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-13/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.022754730656743</v>
+        <v>1.217607140541077</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0641408488154411</v>
+        <v>-0.0294742472469806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.807563841342926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1922698318958282</v>
+        <v>0.5273294448852539</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3217732608318329</v>
+        <v>-6.853602409362793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.55069500207901</v>
+        <v>0.554818332195282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2170098721981048</v>
+        <v>-2.067320823669434</v>
       </c>
       <c r="B4" t="n">
-        <v>1.054353356361389</v>
+        <v>-2.543490171432495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6004805564880371</v>
+        <v>-1.371545195579529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3987422883510589</v>
+        <v>-1.386664152145386</v>
       </c>
       <c r="B5" t="n">
-        <v>2.450333118438721</v>
+        <v>-2.159103155136108</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4502076804637909</v>
+        <v>-0.2104430794715881</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.5177083015441895</v>
+        <v>-0.4366159439086914</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3733913898468017</v>
+        <v>-2.386039733886719</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.041053533554077</v>
+        <v>0.6339253783226013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3608686327934265</v>
+        <v>0.7061602473258972</v>
       </c>
       <c r="B7" t="n">
-        <v>2.603813171386719</v>
+        <v>1.022435665130615</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.005331516265869</v>
+        <v>0.9382890462875366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.672369241714478</v>
+        <v>-1.432479023933411</v>
       </c>
       <c r="B8" t="n">
-        <v>5.648518085479736</v>
+        <v>0.08170322328805921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6539312601089478</v>
+        <v>1.352913856506348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.217607140541077</v>
+        <v>-4.308279991149902</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0294742472469806</v>
+        <v>0.7483099102973938</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.807563841342926</v>
+        <v>-0.4677700698375702</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5273294448852539</v>
+        <v>-1.983479499816894</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.853602409362793</v>
+        <v>0.1204931661486625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.554818332195282</v>
+        <v>-1.231657028198242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.067320823669434</v>
+        <v>-0.7951938509941101</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.543490171432495</v>
+        <v>-1.842216849327088</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.371545195579529</v>
+        <v>-2.083966732025146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.386664152145386</v>
+        <v>-0.8384125232696533</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.159103155136108</v>
+        <v>-2.687654256820679</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2104430794715881</v>
+        <v>-1.451874017715454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4366159439086914</v>
+        <v>-0.4280638098716736</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.386039733886719</v>
+        <v>-0.8827002644538879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6339253783226013</v>
+        <v>0.5508477091789246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7061602473258972</v>
+        <v>0.1948660165071487</v>
       </c>
       <c r="B14" t="n">
-        <v>1.022435665130615</v>
+        <v>1.952783465385437</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9382890462875366</v>
+        <v>-2.956129550933838</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.432479023933411</v>
+        <v>2.541657686233521</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08170322328805921</v>
+        <v>1.120479583740234</v>
       </c>
       <c r="C15" t="n">
-        <v>1.352913856506348</v>
+        <v>0.3246748745441437</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.308279991149902</v>
+        <v>-3.313027620315552</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7483099102973938</v>
+        <v>2.173916578292847</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4677700698375702</v>
+        <v>-4.959309577941895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.983479499816894</v>
+        <v>0.2906191349029541</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1204931661486625</v>
+        <v>-1.299157619476318</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.231657028198242</v>
+        <v>1.514182209968567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.7951938509941101</v>
+        <v>1.71515691280365</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.842216849327088</v>
+        <v>0.9166033267974854</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.083966732025146</v>
+        <v>0.9940304756164552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.8384125232696533</v>
+        <v>-1.992336988449097</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.687654256820679</v>
+        <v>-0.5707008838653564</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.451874017715454</v>
+        <v>0.5294674634933472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.4280638098716736</v>
+        <v>-0.0847575515508651</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.8827002644538879</v>
+        <v>-0.578489363193512</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5508477091789246</v>
+        <v>2.060448408126831</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1948660165071487</v>
+        <v>1.970193147659302</v>
       </c>
       <c r="B21" t="n">
-        <v>1.952783465385437</v>
+        <v>-0.4350887835025787</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.956129550933838</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.541657686233521</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.120479583740234</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3246748745441437</v>
+        <v>1.578170418739319</v>
       </c>
     </row>
   </sheetData>
